--- a/pruebas/digidata/Digidata.xlsx
+++ b/pruebas/digidata/Digidata.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\aia-1718-t3-master\aia-1718-t3-master\pruebas\digidata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -12,23 +17,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$F$17</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
-  <si>
-    <t>0.9420289855072463</t>
-  </si>
-  <si>
-    <t>0.9565217391304348</t>
-  </si>
-  <si>
-    <t>0.9710144927536232</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>Preceptron estocastico</t>
   </si>
@@ -45,33 +41,18 @@
     <t>Regresion batch</t>
   </si>
   <si>
-    <t>0.8695652173913043</t>
-  </si>
-  <si>
-    <t>0.927536231884058</t>
-  </si>
-  <si>
     <t>Normalizado</t>
   </si>
   <si>
-    <t>Dacaimiento</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>0.8840579710144928</t>
-  </si>
-  <si>
     <t>Metodo</t>
   </si>
   <si>
-    <t>Puntuacion</t>
-  </si>
-  <si>
     <t>Nombres:</t>
   </si>
   <si>
@@ -124,12 +105,72 @@
   </si>
   <si>
     <t>ccon</t>
+  </si>
+  <si>
+    <t>Validación</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.506</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>Decaimiento</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.715</t>
+  </si>
+  <si>
+    <t>0.655</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,6 +211,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -218,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,9 +295,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,6 +347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,407 +540,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J21"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E21">
-    <sortState ref="B2:E21">
-      <sortCondition descending="1" ref="C1:C21"/>
+  <autoFilter ref="B1:E17">
+    <sortState ref="B2:E17">
+      <sortCondition descending="1" ref="C1:C17"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
